--- a/16th July Batch/Class 07.01.2023 -  Excel RDBMS.xlsx
+++ b/16th July Batch/Class 07.01.2023 -  Excel RDBMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\16th July Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0067476-7443-4BD8-BDAE-CE6C5BD8888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73B88C-E71C-4FF6-A663-AF3296CDB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">Roll </t>
   </si>
@@ -52,24 +52,6 @@
     <t>roll no</t>
   </si>
   <si>
-    <t>subjects</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>geography</t>
-  </si>
-  <si>
-    <t>maths</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -113,6 +95,9 @@
   </si>
   <si>
     <t>Trustee Board Member</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -160,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,22 +153,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -494,20 +503,20 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -517,45 +526,45 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -573,10 +582,10 @@
         <v>3000</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>150000</v>
@@ -595,145 +604,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80E6EAC-1FB1-4F03-BB5B-823079E007EB}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="8.7265625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="C2" s="6">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="C3" s="6">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="C4" s="6">
+        <v>86</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
+      <c r="C6" s="6">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
+      <c r="D7" s="6">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
